--- a/Archivos originales usados/Data mensual julio 2023.xlsx
+++ b/Archivos originales usados/Data mensual julio 2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Macriana/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Macriana/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/Archivos originales usados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFDD42E-886E-524F-9987-DE3E6232011B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F0E0D3-5098-5A40-8CDB-CCA4AACB4298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>Ptrigo_USA</t>
   </si>
   <si>
-    <t>tot</t>
-  </si>
-  <si>
     <t>TOTfmi</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t xml:space="preserve">(*2): emae Mecon mensual base 2004: de ene 1993 a dic 2003 lo hice yo alargando base 2004 con base 1993. </t>
+  </si>
+  <si>
+    <t>tot_04</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -801,46 +801,46 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
@@ -852,43 +852,43 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V2" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="17" thickBot="1">
@@ -929,34 +929,34 @@
         <v>23</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="O3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="Q3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="U3" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -17081,7 +17081,7 @@
         <v>110.5</v>
       </c>
       <c r="G288" s="24">
-        <f t="shared" ref="G288:G319" si="4">+F288*G289/F289</f>
+        <f t="shared" ref="G288:G290" si="4">+F288*G289/F289</f>
         <v>95.045454545454575</v>
       </c>
       <c r="I288" s="5">
@@ -29065,214 +29065,130 @@
       </c>
     </row>
     <row r="484" spans="1:22">
-      <c r="M484" s="23">
-        <v>136.68</v>
-      </c>
+      <c r="M484" s="23"/>
     </row>
     <row r="485" spans="1:22">
-      <c r="M485" s="23">
-        <v>129.49</v>
-      </c>
+      <c r="M485" s="23"/>
     </row>
     <row r="486" spans="1:22">
-      <c r="M486" s="23">
-        <v>128.62</v>
-      </c>
+      <c r="M486" s="23"/>
     </row>
     <row r="487" spans="1:22">
-      <c r="M487" s="23">
-        <v>123.96</v>
-      </c>
+      <c r="M487" s="23"/>
     </row>
     <row r="488" spans="1:22">
-      <c r="M488" s="23">
-        <v>122.5</v>
-      </c>
+      <c r="M488" s="23"/>
     </row>
     <row r="489" spans="1:22">
-      <c r="M489" s="23">
-        <v>130.72999999999999</v>
-      </c>
+      <c r="M489" s="23"/>
     </row>
     <row r="490" spans="1:22">
-      <c r="M490" s="23">
-        <v>130.97</v>
-      </c>
+      <c r="M490" s="23"/>
     </row>
     <row r="491" spans="1:22">
-      <c r="M491" s="23">
-        <v>131.53</v>
-      </c>
+      <c r="M491" s="23"/>
     </row>
     <row r="492" spans="1:22">
-      <c r="M492" s="23">
-        <v>131.06</v>
-      </c>
+      <c r="M492" s="23"/>
     </row>
     <row r="493" spans="1:22">
-      <c r="M493" s="23">
-        <v>135.79</v>
-      </c>
+      <c r="M493" s="23"/>
     </row>
     <row r="494" spans="1:22">
-      <c r="M494" s="23">
-        <v>138.21</v>
-      </c>
+      <c r="M494" s="23"/>
     </row>
     <row r="495" spans="1:22">
-      <c r="M495" s="23">
-        <v>138.30000000000001</v>
-      </c>
+      <c r="M495" s="23"/>
     </row>
     <row r="496" spans="1:22">
-      <c r="M496" s="23">
-        <v>148.85</v>
-      </c>
+      <c r="M496" s="23"/>
     </row>
     <row r="497" spans="13:13">
-      <c r="M497" s="23">
-        <v>149.71</v>
-      </c>
+      <c r="M497" s="23"/>
     </row>
     <row r="498" spans="13:13">
-      <c r="M498" s="23">
-        <v>142.69</v>
-      </c>
+      <c r="M498" s="23"/>
     </row>
     <row r="499" spans="13:13">
-      <c r="M499" s="23">
-        <v>144.82</v>
-      </c>
+      <c r="M499" s="23"/>
     </row>
     <row r="500" spans="13:13">
-      <c r="M500" s="23">
-        <v>144.51</v>
-      </c>
+      <c r="M500" s="23"/>
     </row>
     <row r="501" spans="13:13">
-      <c r="M501" s="23">
-        <v>141.82</v>
-      </c>
+      <c r="M501" s="23"/>
     </row>
     <row r="502" spans="13:13">
-      <c r="M502" s="23">
-        <v>142.18</v>
-      </c>
+      <c r="M502" s="23"/>
     </row>
     <row r="503" spans="13:13">
-      <c r="M503" s="23">
-        <v>138.47</v>
-      </c>
+      <c r="M503" s="23"/>
     </row>
     <row r="504" spans="13:13">
-      <c r="M504" s="23">
-        <v>143.38999999999999</v>
-      </c>
+      <c r="M504" s="23"/>
     </row>
     <row r="505" spans="13:13">
-      <c r="M505" s="23">
-        <v>146.13999999999999</v>
-      </c>
+      <c r="M505" s="23"/>
     </row>
     <row r="506" spans="13:13">
-      <c r="M506" s="23">
-        <v>140.41999999999999</v>
-      </c>
+      <c r="M506" s="23"/>
     </row>
     <row r="507" spans="13:13">
-      <c r="M507" s="23">
-        <v>146.25</v>
-      </c>
+      <c r="M507" s="23"/>
     </row>
     <row r="508" spans="13:13">
-      <c r="M508" s="23">
-        <v>155.38999999999999</v>
-      </c>
+      <c r="M508" s="23"/>
     </row>
     <row r="509" spans="13:13">
-      <c r="M509" s="23">
-        <v>149.79</v>
-      </c>
+      <c r="M509" s="23"/>
     </row>
     <row r="510" spans="13:13">
-      <c r="M510" s="23">
-        <v>151.83000000000001</v>
-      </c>
+      <c r="M510" s="23"/>
     </row>
     <row r="511" spans="13:13">
-      <c r="M511" s="23">
-        <v>149.26</v>
-      </c>
+      <c r="M511" s="23"/>
     </row>
     <row r="512" spans="13:13">
-      <c r="M512" s="23">
-        <v>141.04</v>
-      </c>
+      <c r="M512" s="23"/>
     </row>
     <row r="513" spans="13:13">
-      <c r="M513" s="23">
-        <v>135.78</v>
-      </c>
+      <c r="M513" s="23"/>
     </row>
     <row r="514" spans="13:13">
-      <c r="M514" s="23">
-        <v>126.25</v>
-      </c>
+      <c r="M514" s="23"/>
     </row>
     <row r="515" spans="13:13">
-      <c r="M515" s="23">
-        <v>133.13999999999999</v>
-      </c>
+      <c r="M515" s="23"/>
     </row>
     <row r="516" spans="13:13">
-      <c r="M516" s="23">
-        <v>144.03</v>
-      </c>
+      <c r="M516" s="23"/>
     </row>
     <row r="517" spans="13:13">
-      <c r="M517" s="23">
-        <v>144.84</v>
-      </c>
+      <c r="M517" s="23"/>
     </row>
     <row r="518" spans="13:13">
-      <c r="M518" s="23">
-        <v>158.47</v>
-      </c>
+      <c r="M518" s="23"/>
     </row>
     <row r="519" spans="13:13">
-      <c r="M519" s="23">
-        <v>151.30000000000001</v>
-      </c>
+      <c r="M519" s="23"/>
     </row>
     <row r="520" spans="13:13">
-      <c r="M520" s="23">
-        <v>154.41</v>
-      </c>
+      <c r="M520" s="23"/>
     </row>
     <row r="521" spans="13:13">
-      <c r="M521" s="23">
-        <v>142.77000000000001</v>
-      </c>
+      <c r="M521" s="23"/>
     </row>
     <row r="522" spans="13:13">
-      <c r="M522" s="23">
-        <v>138.99</v>
-      </c>
+      <c r="M522" s="23"/>
     </row>
     <row r="523" spans="13:13">
-      <c r="M523" s="23">
-        <v>141.63</v>
-      </c>
+      <c r="M523" s="23"/>
     </row>
     <row r="524" spans="13:13">
-      <c r="M524" s="23">
-        <v>135.77000000000001</v>
-      </c>
+      <c r="M524" s="23"/>
     </row>
     <row r="525" spans="13:13">
-      <c r="M525" s="23">
-        <v>130.5</v>
-      </c>
+      <c r="M525" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29291,12 +29207,12 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos originales usados/Data mensual julio 2023.xlsx
+++ b/Archivos originales usados/Data mensual julio 2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Macriana/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/Archivos originales usados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBF5A47-9536-DB4C-AF69-1739064F42E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B4FDC6-B0F6-FF44-B3DC-8F9A7A71688D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
@@ -30766,53 +30766,52 @@
       <c r="D482">
         <v>3047.95919340716</v>
       </c>
-      <c r="E482" s="2">
+      <c r="F482" s="2">
         <v>59.863300000000002</v>
       </c>
-      <c r="F482" s="2"/>
-      <c r="H482" s="21">
+      <c r="I482" s="21">
         <v>140.9</v>
       </c>
-      <c r="I482" s="5">
+      <c r="J482" s="5">
         <v>103.896617201231</v>
       </c>
-      <c r="J482" s="19">
+      <c r="K482" s="19">
         <v>8.59</v>
       </c>
-      <c r="K482" s="19">
+      <c r="L482" s="19">
         <v>3.68</v>
       </c>
-      <c r="L482" s="20">
+      <c r="M482" s="20">
         <v>4.3899999999999997</v>
       </c>
-      <c r="M482" s="23">
+      <c r="N482" s="23">
         <v>130.32</v>
       </c>
-      <c r="N482" s="4">
+      <c r="O482" s="4">
         <v>99.230079650878906</v>
       </c>
-      <c r="O482" s="6">
+      <c r="P482" s="6">
         <v>85.307055709660204</v>
       </c>
-      <c r="P482" s="6">
+      <c r="Q482" s="6">
         <v>76.617646080701405</v>
       </c>
-      <c r="Q482" s="7">
+      <c r="R482" s="7">
         <v>770.2</v>
       </c>
-      <c r="R482" s="8">
+      <c r="S482" s="8">
         <v>347.32</v>
       </c>
-      <c r="S482" s="8">
+      <c r="T482" s="8">
         <v>166.3337368</v>
       </c>
-      <c r="T482" s="8">
+      <c r="U482" s="8">
         <v>213.36498013950001</v>
       </c>
-      <c r="U482" s="7">
+      <c r="V482" s="7">
         <v>60.4</v>
       </c>
-      <c r="V482" s="8">
+      <c r="W482" s="8">
         <v>5.9466691750729508</v>
       </c>
     </row>
@@ -30829,53 +30828,52 @@
       <c r="D483">
         <v>3162.0658659123601</v>
       </c>
-      <c r="E483" s="2">
+      <c r="F483" s="2">
         <v>59.895000000000003</v>
       </c>
-      <c r="F483" s="2"/>
-      <c r="H483" s="21">
+      <c r="I483" s="21">
         <v>140.1</v>
       </c>
-      <c r="I483" s="5">
+      <c r="J483" s="5">
         <v>103.99089725313701</v>
       </c>
-      <c r="J483" s="19">
+      <c r="K483" s="19">
         <v>8.6999999999999993</v>
       </c>
-      <c r="K483" s="19">
+      <c r="L483" s="19">
         <v>3.71</v>
       </c>
-      <c r="L483" s="20">
+      <c r="M483" s="20">
         <v>4.6399999999999997</v>
       </c>
-      <c r="M483" s="23">
+      <c r="N483" s="23">
         <v>133.06</v>
       </c>
-      <c r="N483" s="4">
+      <c r="O483" s="4">
         <v>99.317970275878906</v>
       </c>
-      <c r="O483" s="6">
+      <c r="P483" s="6">
         <v>87.264042221207205</v>
       </c>
-      <c r="P483" s="6">
+      <c r="Q483" s="6">
         <v>79.078663331640897</v>
       </c>
-      <c r="Q483" s="7">
+      <c r="R483" s="7">
         <v>833.5</v>
       </c>
-      <c r="R483" s="8">
+      <c r="S483" s="8">
         <v>352.68</v>
       </c>
-      <c r="S483" s="8">
+      <c r="T483" s="8">
         <v>166.95575120000001</v>
       </c>
-      <c r="T483" s="8">
+      <c r="U483" s="8">
         <v>224.2925475975</v>
       </c>
-      <c r="U483" s="7">
+      <c r="V483" s="7">
         <v>63.4</v>
       </c>
-      <c r="V483" s="8">
+      <c r="W483" s="8">
         <v>5.6398896746084501</v>
       </c>
     </row>
